--- a/migration/outputs/new_accounts.xlsx
+++ b/migration/outputs/new_accounts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,11 +601,7 @@
           <t>U10413224</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -614,11 +610,7 @@
           <t>U10433194</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -691,11 +683,7 @@
           <t>U10453895</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -721,11 +709,7 @@
           <t>U10486088</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -768,11 +752,7 @@
           <t>U10553677</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>20221015173400</t>
@@ -836,11 +816,7 @@
           <t>U10628594</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -917,11 +893,7 @@
           <t>U10790704</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>20221027114300</t>
@@ -934,11 +906,7 @@
           <t>U10840363</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>20220507123800</t>
@@ -951,11 +919,7 @@
           <t>U10847711</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>20220307200600</t>
@@ -985,11 +949,7 @@
           <t>U11030624</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Alysson Hernandez Marin</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>20221205173400</t>
@@ -1015,11 +975,7 @@
           <t>U11158548</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>20220610190500</t>
@@ -1032,11 +988,7 @@
           <t>U11255494</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>20230117100400</t>
@@ -1049,11 +1001,7 @@
           <t>U11275946</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Alysson Hernandez Marin</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1062,11 +1010,7 @@
           <t>U11284650</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1075,11 +1019,7 @@
           <t>U11297960</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Alysson Hernandez Marin</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>20220819153200</t>
@@ -1092,11 +1032,7 @@
           <t>U11438607</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>20230213141900</t>
@@ -1109,11 +1045,7 @@
           <t>U11468091</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20221117105600</t>
@@ -1126,11 +1058,7 @@
           <t>U11511513</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1152,11 +1080,7 @@
           <t>U11599733</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>20230315113500</t>
@@ -1169,11 +1093,7 @@
           <t>U11624895</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ernesto Aguilar</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>20230304135400</t>
@@ -1186,11 +1106,7 @@
           <t>U11796067</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1199,11 +1115,7 @@
           <t>U11799613</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1212,11 +1124,7 @@
           <t>U11896894</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1225,11 +1133,7 @@
           <t>U11958842</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>20230427110100</t>
@@ -1242,11 +1146,7 @@
           <t>U12007572</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>20230607102500</t>
@@ -1298,11 +1198,7 @@
           <t>U12147066</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>20230516154900</t>
@@ -1315,11 +1211,7 @@
           <t>U12192676</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>20230703165000</t>
@@ -1332,11 +1224,7 @@
           <t>U12470930</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -1345,11 +1233,7 @@
           <t>U12557520</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>20230811103000</t>
@@ -1362,11 +1246,7 @@
           <t>U12617173</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1375,11 +1255,7 @@
           <t>U12634060</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1388,11 +1264,7 @@
           <t>U12704234</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Luis Alfredo Gutierrez Leon</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>20230825083900</t>
@@ -1405,11 +1277,7 @@
           <t>U12744811</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>James Stanley Esquivel</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>20230826075600</t>
@@ -1435,11 +1303,7 @@
           <t>U12973775</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>20230912115900</t>
@@ -1452,11 +1316,7 @@
           <t>U13017334</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>20230427110100</t>
@@ -1469,11 +1329,7 @@
           <t>U13090503</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Federico Pozuelo</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>20230427110100</t>
@@ -1486,11 +1342,7 @@
           <t>U13294753</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1499,11 +1351,7 @@
           <t>U13382184</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -1512,11 +1360,7 @@
           <t>U13404947</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>20231123113300</t>
@@ -1529,11 +1373,7 @@
           <t>U13581692</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -1542,11 +1382,7 @@
           <t>U13926601</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -1555,11 +1391,7 @@
           <t>U13965807</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -1568,11 +1400,7 @@
           <t>U14122717</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>20240201154300</t>
@@ -1585,11 +1413,7 @@
           <t>U14313113</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Andres Aguilar Carboni</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>20240422100200</t>
@@ -1602,11 +1426,7 @@
           <t>U14386628</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>20230928105100</t>
@@ -1619,11 +1439,7 @@
           <t>U14515326</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Freddy Alvarado Cruz</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>20240318191300</t>
@@ -1636,11 +1452,7 @@
           <t>U14633650</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>20240321185800</t>
@@ -1653,11 +1465,7 @@
           <t>U14786666</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>20240419154400</t>
@@ -1667,24 +1475,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>U14823704</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Juan Carlos Barboza</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>20241016103400</t>
-        </is>
-      </c>
+          <t>U14868486</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>U14868486</t>
+          <t>U1536192</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1697,7 +1497,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>U1536192</t>
+          <t>U1540636</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1710,38 +1510,30 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>U1540636</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U15433216</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>U15433216</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Michael Garcia</t>
-        </is>
-      </c>
+          <t>U15476355</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>U15476355</t>
+          <t>U1594500</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Bullish &amp; Bearish</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1749,57 +1541,45 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>U1594500</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Bullish &amp; Bearish</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>U15963684</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20240123145200</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>U15963684</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>20240123145200</t>
-        </is>
-      </c>
+          <t>U16023662</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>U16023662</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>U16078834</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>20230427110100</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>U16078834</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U16087704</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>20230427110100</t>
@@ -1809,14 +1589,10 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>U16087704</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U16497845</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>20230427110100</t>
@@ -1826,75 +1602,55 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>U16497845</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U16517614</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>20230427110100</t>
+          <t>20231109125200</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>U16517614</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U16942269</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>20231109125200</t>
+          <t>20250131124028</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>U16942269</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U17154679</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>20250131124028</t>
+          <t>20250115112300</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>U17154679</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>20250115112300</t>
-        </is>
-      </c>
+          <t>U17241700</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>U17241700</t>
+          <t>U1742143</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1907,7 +1663,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>U1742143</t>
+          <t>U1779026</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1920,54 +1676,46 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>U1779026</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>U17829486</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>20241113175400</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>U17829486</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U17845061</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20241113175400</t>
+          <t>20231109125200</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>U17845061</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U17884766</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>20231109125200</t>
+          <t>20231122111800</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>U17884766</t>
+          <t>U1809702</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1977,44 +1725,36 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>20231122111800</t>
+          <t>20230907111000</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>U1809702</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>20230907111000</t>
-        </is>
-      </c>
+          <t>U18565614</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>U18565614</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>U18588527</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>20250314125110</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>U18588527</t>
+          <t>U1868325</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2022,16 +1762,12 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>20250314125110</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>U1868325</t>
+          <t>U19034739</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2044,14 +1780,10 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>U19034739</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U19116737</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -2073,11 +1805,7 @@
           <t>U19782483</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -2099,7 +1827,11 @@
           <t>U20082544</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>20250402185537</t>
@@ -2112,7 +1844,11 @@
           <t>U20089468</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -2121,7 +1857,11 @@
           <t>U20167050</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -2145,7 +1885,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>U20470031</t>
+          <t>U20390316</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2154,20 +1894,16 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>U2092795</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Keylin Oviedo</t>
-        </is>
-      </c>
+          <t>U20405636</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>U2124140</t>
+          <t>U20470031</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2180,25 +1916,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>U2265338</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U20684404</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>U2320672</t>
+          <t>U2092795</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Keylin Oviedo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2206,12 +1938,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>U2421560</t>
+          <t>U2124140</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2219,7 +1951,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>U2467439</t>
+          <t>U2265338</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,12 +1964,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>U2549120</t>
+          <t>U2320672</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2245,7 +1977,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>U2580655</t>
+          <t>U2421560</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2258,7 +1990,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>U2587699</t>
+          <t>U2467439</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2271,12 +2003,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>U2611558</t>
+          <t>U2549120</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2284,12 +2016,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>U2621768</t>
+          <t>U2580655</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2297,12 +2029,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>U2621906</t>
+          <t>U2587699</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2310,12 +2042,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>U2641772</t>
+          <t>U2611558</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2323,7 +2055,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>U2644460</t>
+          <t>U2621768</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2336,12 +2068,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>U2676346</t>
+          <t>U2621906</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Alberto Valverde</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2349,12 +2081,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>U2750658</t>
+          <t>U2641772</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2362,7 +2094,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>U2778638</t>
+          <t>U2644460</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2375,12 +2107,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>U2811956</t>
+          <t>U2676346</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Alberto Valverde</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2388,12 +2120,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>U2828033</t>
+          <t>U2750658</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2401,12 +2133,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>U2829465</t>
+          <t>U2778638</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2414,29 +2146,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>U3191299</t>
+          <t>U2811956</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>20210710110100</t>
-        </is>
-      </c>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>U3207587</t>
+          <t>U2828033</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2444,12 +2172,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>U3208864</t>
+          <t>U2829465</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2457,7 +2185,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>U3229733</t>
+          <t>U3191299</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2465,17 +2193,21 @@
           <t>Juan Carlos Barboza</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>20210710110100</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>U3291533</t>
+          <t>U3207587</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2483,7 +2215,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>U3291633</t>
+          <t>U3208864</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2496,12 +2228,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>U3364295</t>
+          <t>U3229733</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -2509,12 +2241,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>U3372071</t>
+          <t>U3291533</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>André Maingot</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2522,12 +2254,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>U3458702</t>
+          <t>U3291633</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Julian Barboza Lopez</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2535,12 +2267,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>U3492964</t>
+          <t>U3364295</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Alfonso Sancho</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2548,12 +2280,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>U3505109</t>
+          <t>U3372071</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>André Maingot</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2561,12 +2293,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>U3507227</t>
+          <t>U3458702</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>Julian Barboza Lopez</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2574,12 +2306,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>U3520046</t>
+          <t>U3492964</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>Alfonso Sancho</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2587,7 +2319,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>U3535500</t>
+          <t>U3505109</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2600,12 +2332,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>U3545774</t>
+          <t>U3507227</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2613,12 +2345,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>U3554642</t>
+          <t>U3520046</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -2626,12 +2358,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>U3695134</t>
+          <t>U3535500</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Alfonso Sancho</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2639,7 +2371,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>U3732157</t>
+          <t>U3545774</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2652,7 +2384,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>U3845062</t>
+          <t>U3554642</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2665,12 +2397,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>U3876124</t>
+          <t>U3695134</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gabriela Cambronero</t>
+          <t>Alfonso Sancho</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -2678,12 +2410,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>U3906034</t>
+          <t>U3732157</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pablo Cardona Vaselli</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2691,12 +2423,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>U3930410</t>
+          <t>U3845062</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fernando Diaz</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2704,12 +2436,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>U4114241</t>
+          <t>U3876124</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Gabriela Cambronero</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2717,12 +2449,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>U4157552</t>
+          <t>U3906034</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fernando Diaz</t>
+          <t>Pablo Cardona Vaselli</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2730,12 +2462,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>U4196107</t>
+          <t>U3930410</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Fernando Diaz</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -2743,12 +2475,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>U4198701</t>
+          <t>U4114241</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lucrecia Gamboa</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -2756,25 +2488,21 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>U4225328</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U4157552</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>U4234961</t>
+          <t>U4196107</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Julian Barboza Lopez</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -2782,12 +2510,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>U4239655</t>
+          <t>U4198701</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Lucrecia Gamboa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -2795,7 +2523,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>U4248067</t>
+          <t>U4225328</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2808,12 +2536,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>U4258190</t>
+          <t>U4234961</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Julian Barboza Lopez</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -2821,12 +2549,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>U4293355</t>
+          <t>U4239655</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lucrecia Gamboa</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -2834,12 +2562,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>U4300315</t>
+          <t>U4248067</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lucrecia Gamboa</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -2847,12 +2575,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>U4314383</t>
+          <t>U4258190</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cristian Ramirez</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -2860,12 +2588,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>U4331101</t>
+          <t>U4293355</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Lucrecia Gamboa</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2873,12 +2601,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>U4372093</t>
+          <t>U4300315</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Juan Carlos Herrera</t>
+          <t>Lucrecia Gamboa</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -2886,12 +2614,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>U4461700</t>
+          <t>U4314383</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Cristian Ramirez</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -2899,12 +2627,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>U4468607</t>
+          <t>U4331101</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Pablo Cardona Vaselli</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -2912,12 +2640,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>U4470952</t>
+          <t>U4372093</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Herrera</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2925,12 +2653,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>U4512987</t>
+          <t>U4461700</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -2938,12 +2666,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>U4535670</t>
+          <t>U4468607</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ramón Blandón</t>
+          <t>Pablo Cardona Vaselli</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -2951,7 +2679,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>U4539881</t>
+          <t>U4470952</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2964,12 +2692,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>U4563227</t>
+          <t>U4512987</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Alfonso Sancho</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -2977,12 +2705,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>U4582003</t>
+          <t>U4535670</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Ramón Blandón</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -2990,12 +2718,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>U4596524</t>
+          <t>U4539881</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -3003,25 +2731,21 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>U4605398</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>James Stanley Esquivel</t>
-        </is>
-      </c>
+          <t>U4563227</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>U4619498</t>
+          <t>U4582003</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Silvia Glenewinkel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -3029,12 +2753,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>U4623538</t>
+          <t>U4596524</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -3042,12 +2766,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>U4654785</t>
+          <t>U4605398</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -3055,12 +2779,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>U4686178</t>
+          <t>U4619498</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Silvia Glenewinkel</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -3068,7 +2792,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>U4697451</t>
+          <t>U4623538</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3081,12 +2805,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>U4764039</t>
+          <t>U4654785</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Juan Carlos Herrera</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -3094,12 +2818,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>U4784715</t>
+          <t>U4686178</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -3107,7 +2831,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>U4848570</t>
+          <t>U4697451</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3120,12 +2844,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>U5301990</t>
+          <t>U4764039</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Juan Carlos Herrera</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -3133,12 +2857,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>U5353411</t>
+          <t>U4784715</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -3146,7 +2870,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>U5426158</t>
+          <t>U4848570</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3159,12 +2883,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>U5441934</t>
+          <t>U5301990</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -3172,12 +2896,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>U5548577</t>
+          <t>U5353411</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Juan Carlos Barboza</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3185,12 +2909,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>U5586182</t>
+          <t>U5426158</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -3198,12 +2922,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>U5587813</t>
+          <t>U5441934</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>William Railsback</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -3211,12 +2935,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>U5596495</t>
+          <t>U5548577</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Juan Carlos Barboza</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -3224,12 +2948,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>U5674522</t>
+          <t>U5586182</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -3237,12 +2961,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>U5732371</t>
+          <t>U5587813</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>William Railsback</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -3250,12 +2974,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>U5767909</t>
+          <t>U5596495</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -3263,7 +2987,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>U5783478</t>
+          <t>U5674522</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3276,12 +3000,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>U5790403</t>
+          <t>U5732371</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -3289,12 +3013,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>U5817869</t>
+          <t>U5767909</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -3302,46 +3026,34 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>U5823735</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U5783478</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>U5863068</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U5790403</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>U5865195</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U5817869</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>U5865197</t>
+          <t>U5823735</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3354,7 +3066,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>U5875782</t>
+          <t>U5863068</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3367,12 +3079,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>U5885736</t>
+          <t>U5865195</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -3380,25 +3092,21 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>U5911467</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Juan Carlos Herrera</t>
-        </is>
-      </c>
+          <t>U5865197</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>U5985893</t>
+          <t>U5875782</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Lucrecia Gamboa</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -3406,38 +3114,30 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>U6009160</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U5885736</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>U6170070</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U5911467</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>U6170355</t>
+          <t>U5985893</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>Lucrecia Gamboa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -3445,12 +3145,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>U6181140</t>
+          <t>U6009160</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ernesto Aguilar</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -3458,7 +3158,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>U6343244</t>
+          <t>U6170070</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3471,12 +3171,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>U6343516</t>
+          <t>U6170355</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -3484,12 +3184,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>U6449725</t>
+          <t>U6181140</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Ernesto Aguilar</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -3497,7 +3197,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>U6469792</t>
+          <t>U6343244</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3510,7 +3210,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>U6586421</t>
+          <t>U6343516</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3523,12 +3223,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>U6616743</t>
+          <t>U6449725</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ernesto Aguilar</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -3536,12 +3236,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>U6735569</t>
+          <t>U6469792</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -3549,7 +3249,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>U6785549</t>
+          <t>U6586421</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3562,12 +3262,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>U7030611</t>
+          <t>U6616743</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Ernesto Aguilar</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -3575,12 +3275,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>U7030634</t>
+          <t>U6735569</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -3588,7 +3288,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>U7064401</t>
+          <t>U6785549</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3601,7 +3301,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>U7257457</t>
+          <t>U7030611</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3609,38 +3309,30 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>20211013155900</t>
-        </is>
-      </c>
+      <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>U7274535</t>
+          <t>U7030634</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>20211110165100</t>
-        </is>
-      </c>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>U7303649</t>
+          <t>U7064401</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ana Laura Contreras</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -3648,51 +3340,55 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>U7338948</t>
+          <t>U7257457</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sandra Asis</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>20211013155900</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>U7418369</t>
+          <t>U7274535</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Silvia Glenewinkel</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
+          <t>Adrian Alvarado</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>20211110165100</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>U7636107</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U7303649</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>U7679984</t>
+          <t>U7338948</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ernesto Aguilar</t>
+          <t>Sandra Asis</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -3700,25 +3396,21 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>U7844732</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Provalores</t>
-        </is>
-      </c>
+          <t>U7418369</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>U8143086</t>
+          <t>U7636107</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -3726,12 +3418,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>U8403886</t>
+          <t>U7679984</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Ernesto Aguilar</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -3739,24 +3431,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>U8431143</t>
+          <t>U7844732</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>20220323154100</t>
-        </is>
-      </c>
+          <t>Provalores</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>U8431145</t>
+          <t>U8143086</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3764,21 +3452,17 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>20220323150900</t>
-        </is>
-      </c>
+      <c r="C237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>U8458872</t>
+          <t>U8403886</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -3786,24 +3470,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>U8574239</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U8431143</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>20220903105400</t>
+          <t>20220323154100</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>U8614653</t>
+          <t>U8431145</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3811,17 +3491,21 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>20220323150900</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>U8623014</t>
+          <t>U8458872</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -3829,20 +3513,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>U8637443</t>
+          <t>U8574239</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>20220903105400</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>U8652485</t>
+          <t>U8614653</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3850,16 +3538,12 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>20220203174100</t>
-        </is>
-      </c>
+      <c r="C243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>U8740764</t>
+          <t>U8623014</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3872,12 +3556,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>U8829472</t>
+          <t>U8637443</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>John Medina</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -3885,24 +3569,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>U9121743</t>
+          <t>U8652485</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Sindy Pessoa</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20220120102000</t>
+          <t>20220203174100</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>U9360540</t>
+          <t>U8740764</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3910,46 +3594,42 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>20220425163200</t>
-        </is>
-      </c>
+      <c r="C247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>U9362414</t>
+          <t>U8829472</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>20220426083200</t>
-        </is>
-      </c>
+          <t>John Medina</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>U9374323</t>
+          <t>U9121743</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
+          <t>Sindy Pessoa</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>20220120102000</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>U9438016</t>
+          <t>U9360540</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3957,60 +3637,60 @@
           <t>AGM</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>20220425163200</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>U9451686</t>
+          <t>U9362414</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Luis Diego Marín</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>20220426083200</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>U9604686</t>
+          <t>U9374323</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>20220914110900</t>
-        </is>
-      </c>
+          <t>William Railsback</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>U9684634</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Cristian Ramirez</t>
-        </is>
-      </c>
+          <t>U9438016</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>U9748362</t>
+          <t>U9451686</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Luis Diego Marín</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -4018,124 +3698,104 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>U9776746</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Juan Carlos Barboza</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
+          <t>U9604686</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>20220914110900</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>U9844423</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+          <t>U9684634</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>U10193364</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>20220726214300</t>
-        </is>
-      </c>
+          <t>U9748362</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>U10320779</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Roger Gonzalez</t>
-        </is>
-      </c>
+          <t>U9776746</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>U10731361</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Roger Gonzalez</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>20220529150400</t>
-        </is>
-      </c>
+          <t>U9844423</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>U10932369</t>
+          <t>U10193364</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Luis Diego Marín</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr"/>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>20220726214300</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>U11063719</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U10320779</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>U11425543</t>
+          <t>U10731361</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr"/>
+          <t>Roger Gonzalez</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>20220529150400</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>U11434147</t>
+          <t>U10932369</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>William Railsback</t>
+          <t>Luis Diego Marín</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -4143,12 +3803,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>U11553579</t>
+          <t>U11063719</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -4156,805 +3816,573 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>U11571053</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Cristian Ramirez</t>
-        </is>
-      </c>
+          <t>U11425543</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>U11594580</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+          <t>U11434147</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>U11613623</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U11553579</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>U11645481</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U11571053</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>U11666015</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U11594580</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>U11701557</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U11613623</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>U11867442</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U11645481</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>U12209493</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U11666015</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>U12289784</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U11701557</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>U12290588</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>James Stanley Esquivel</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>20220908152400</t>
-        </is>
-      </c>
+          <t>U11867442</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>U12368241</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U12209493</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>U12443091</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U12289784</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>U12500493</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
+          <t>U12290588</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>20220908152400</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>U12659739</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U12368241</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>U12740304</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>20230830182900</t>
-        </is>
-      </c>
+          <t>U12443091</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>U12850045</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U12500493</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
       <c r="C280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>U13041970</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>20230928105100</t>
-        </is>
-      </c>
+          <t>U12659739</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>U13174372</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr"/>
+          <t>U12740304</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>20230830182900</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>U13234095</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U12850045</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>U13236507</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
+          <t>U13041970</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>20230928105100</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>U13261844</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Juan Carlos Herrera</t>
-        </is>
-      </c>
+          <t>U13174372</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>U13394092</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Lucrecia Gamboa</t>
-        </is>
-      </c>
+          <t>U13234095</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>U13424961</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U13236507</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>U13473965</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U13261844</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>U13526523</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U13394092</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>U13581876</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Lina Briceño</t>
-        </is>
-      </c>
+          <t>U13424961</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>U13583821</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U13473965</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>U13793695</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U13526523</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>U14037486</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U13581876</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>U14427860</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>20240205210100</t>
-        </is>
-      </c>
+          <t>U13583821</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>U14459498</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U13793695</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>U14506942</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U14037486</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>U14788997</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Javier Cordero Sancho</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
+          <t>U14427860</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>20240205210100</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>U15322725</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U14459498</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>U15407542</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>20240819115100</t>
-        </is>
-      </c>
+          <t>U14506942</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>U15419901</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+          <t>U14788997</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>U15422485</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+          <t>U15322725</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>U15433145</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U15407542</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>20240823094600</t>
+          <t>20240819115100</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>U15552909</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U15419901</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>U15560509</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
+          <t>U15422485</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>U15613223</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+          <t>U15433145</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>20240830112800</t>
+          <t>20240823094600</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>U15659210</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U15552909</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>U15730651</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+          <t>U15560509</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>U15735559</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+          <t>U15613223</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
-          <t>20240702202700</t>
+          <t>20240830112800</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>U15781954</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U15659210</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>U15834025</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
+          <t>U15730651</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>U16196324</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
+          <t>U15735559</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>20240702202700</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>U16600977</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Juan Carlos Herrera</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>20241126162300</t>
-        </is>
-      </c>
+          <t>U15781954</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>U16642875</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+          <t>U15834025</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>U17244725</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U16196324</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>U17392342</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
+          <t>U16600977</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>20241126162300</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>U18142824</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>20250216154510</t>
-        </is>
-      </c>
+          <t>U16642875</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>U18306234</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U17244725</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>U18402816</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>20250308144700</t>
-        </is>
-      </c>
+          <t>U17392342</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>U18656547</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
+          <t>U18142824</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>20250216154510</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>U18879846</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U18306234</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>U19010137</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
+          <t>U18402816</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>20250308144700</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>U19082714</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>William Railsback</t>
-        </is>
-      </c>
+          <t>U18656547</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>U19146074</t>
+          <t>U18879846</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4967,7 +4395,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>U19165604</t>
+          <t>U19010137</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -4976,7 +4404,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>U19170509</t>
+          <t>U19082714</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -4985,25 +4413,25 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>U19188462</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>20250406192044</t>
-        </is>
-      </c>
+          <t>U19146074</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>U19257207</t>
+          <t>U19165604</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>William Railsback</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -5011,12 +4439,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>U19458539</t>
+          <t>U19170509</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>William Railsback</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -5024,132 +4452,100 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>U19498869</t>
+          <t>U19188462</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
+          <t>Javier Larraguivel</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>20250406192044</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>U19508984</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
+          <t>U19257207</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>U19537509</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U19458539</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>U19548292</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U19498869</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>U19565575</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
+          <t>U19508984</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>U19609758</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>20240520212000</t>
-        </is>
-      </c>
+          <t>U19537509</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>U19734722</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Gabriel Fischel</t>
-        </is>
-      </c>
+          <t>U19548292</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>U19970072</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Adrian Alvarado</t>
-        </is>
-      </c>
+          <t>U19565575</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>U19973459</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Ana Laura Contreras</t>
-        </is>
-      </c>
+          <t>U19609758</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
-          <t>20240618124000</t>
+          <t>20240520212000</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>U20351921</t>
+          <t>U19734722</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -5158,7 +4554,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>U20430156</t>
+          <t>U19970072</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5167,77 +4563,65 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>U2365085</t>
+          <t>U19973459</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AGM</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ana Laura Contreras</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>20240618124000</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>U2408781</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20351921</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>U2433514</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20392242</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>U2465968</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Bullish &amp; Bearish</t>
-        </is>
-      </c>
+          <t>U20405882</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>U2478408</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20406242</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>U2485633</t>
+          <t>U20430156</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Sandra Asis</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -5245,90 +4629,66 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>U2499172</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20566763</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>U2509791</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Gabriela Cambronero</t>
-        </is>
-      </c>
+          <t>U20580183</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>U2677467</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20586040</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>U2686618</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Gabriela Cambronero</t>
-        </is>
-      </c>
+          <t>U20591999</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>U2715494</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Osvaldo Mora</t>
-        </is>
-      </c>
+          <t>U20613112</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>U2764271</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Marielena Cruz</t>
-        </is>
-      </c>
+          <t>U20661731</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>U2798020</t>
+          <t>U2365085</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -5336,12 +4696,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>U2826432</t>
+          <t>U2408781</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Marielena Cruz</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -5349,25 +4709,21 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>U2877774</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Juan Carlos Herrera</t>
-        </is>
-      </c>
+          <t>U2433514</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>U2885803</t>
+          <t>U2465968</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Pablo Fernández</t>
+          <t>Bullish &amp; Bearish</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -5375,12 +4731,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>U2896919</t>
+          <t>U2478408</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -5388,12 +4744,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>U3036531</t>
+          <t>U2485633</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>Sandra Asis</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -5401,12 +4757,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>U3053199</t>
+          <t>U2499172</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -5414,12 +4770,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>U3054875</t>
+          <t>U2509791</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ana Laura Contreras</t>
+          <t>Gabriela Cambronero</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -5427,12 +4783,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>U3070205</t>
+          <t>U2677467</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>André Maingot</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -5440,20 +4796,16 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>U3116251</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Wijbrand Tuinstra</t>
-        </is>
-      </c>
+          <t>U2686618</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>U3145525</t>
+          <t>U2715494</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5466,12 +4818,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>U3171463</t>
+          <t>U2764271</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sylvia Fernandez</t>
+          <t>Marielena Cruz</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -5479,12 +4831,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>U3207438</t>
+          <t>U2798020</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Marielena Cruz</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -5492,12 +4844,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>U3212071</t>
+          <t>U2826432</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Javier Pacheco Pacheco</t>
+          <t>Marielena Cruz</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -5505,12 +4857,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>U3224238</t>
+          <t>U2877774</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Federico Pozuelo</t>
+          <t>Juan Carlos Herrera</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -5518,12 +4870,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>U3224664</t>
+          <t>U2885803</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Ana Laura Contreras</t>
+          <t>Pablo Fernández</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -5531,12 +4883,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>U3242042</t>
+          <t>U2896919</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -5544,12 +4896,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>U3293996</t>
+          <t>U3036531</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Gabriela Cambronero</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -5557,25 +4909,21 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>U3294010</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>AGM</t>
-        </is>
-      </c>
+          <t>U3053199</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>U3330123</t>
+          <t>U3054875</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Gabriela Cambronero</t>
+          <t>Ana Laura Contreras</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -5583,25 +4931,21 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>U3429533</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Sandra Asis</t>
-        </is>
-      </c>
+          <t>U3070205</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>U3430091</t>
+          <t>U3116251</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Wijbrand Tuinstra</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -5609,12 +4953,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>U3490499</t>
+          <t>U3145525</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Wijbrand Tuinstra</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -5622,25 +4966,21 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>U3539586</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Gabriela Cambronero</t>
-        </is>
-      </c>
+          <t>U3171463</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>U3605912</t>
+          <t>U3207438</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pablo Cardona Vaselli</t>
+          <t>Marielena Cruz</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -5648,12 +4988,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>U4060545</t>
+          <t>U3212071</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Pacheco Pacheco</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -5661,12 +5001,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>U4114557</t>
+          <t>U3224238</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Federico Pozuelo</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -5674,25 +5014,21 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>U4233965</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Lucrecia Gamboa</t>
-        </is>
-      </c>
+          <t>U3224664</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>U4346345</t>
+          <t>U3242042</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>James Stanley Esquivel</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -5700,12 +5036,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>U4365629</t>
+          <t>U3293996</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Gabriela Cambronero</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -5713,25 +5049,21 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>U4470711</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>Alfonso Sancho</t>
-        </is>
-      </c>
+          <t>U3294010</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>U4682173</t>
+          <t>U3330123</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Gabriela Cambronero</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -5739,12 +5071,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>U4964936</t>
+          <t>U3429533</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Alex Carmona</t>
+          <t>Sandra Asis</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -5752,12 +5084,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>U5162792</t>
+          <t>U3430091</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -5765,12 +5097,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>U5221471</t>
+          <t>U3490499</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Sylvia Fernandez</t>
+          <t>Wijbrand Tuinstra</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -5778,12 +5110,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>U5230023</t>
+          <t>U3539586</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>Gabriela Cambronero</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -5791,12 +5123,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>U5498383</t>
+          <t>U3605912</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>Pablo Cardona Vaselli</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -5804,25 +5136,21 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>U5524312</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
+          <t>U4060545</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>U5817855</t>
+          <t>U4114557</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -5830,12 +5158,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>U6183471</t>
+          <t>U4233965</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>Lucrecia Gamboa</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -5843,12 +5171,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>U6498112</t>
+          <t>U4346345</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -5856,12 +5184,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>U6640962</t>
+          <t>U4365629</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>William Railsback</t>
+          <t>Osvaldo Mora</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -5869,12 +5197,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>U6930469</t>
+          <t>U4470711</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Alfonso Sancho</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -5882,12 +5210,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>U7024932</t>
+          <t>U4682173</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Javier Larraguivel</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -5895,12 +5223,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>U7217349</t>
+          <t>U4964936</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ernesto Aguilar</t>
+          <t>Alex Carmona</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -5908,12 +5236,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>U7321123</t>
+          <t>U5162792</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -5921,25 +5249,21 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>U7906488</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>James Stanley Esquivel</t>
-        </is>
-      </c>
+          <t>U5221471</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>U8459577</t>
+          <t>U5230023</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Ana Laura Contreras</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -5947,12 +5271,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>U8478855</t>
+          <t>U5498383</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -5960,12 +5284,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>U8621416</t>
+          <t>U5524312</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -5973,20 +5297,16 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>U8869483</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Juan Carlos Herrera</t>
-        </is>
-      </c>
+          <t>U5817855</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>U8974783</t>
+          <t>U6183471</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5999,12 +5319,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>U9032477</t>
+          <t>U6498112</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Osvaldo Mora</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -6012,12 +5332,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>U9149661</t>
+          <t>U6640962</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Sylvia Fernandez</t>
+          <t>William Railsback</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -6025,29 +5345,21 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>U9347752</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Javier Larraguivel</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>20220428095900</t>
-        </is>
-      </c>
+          <t>U6930469</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>U9456704</t>
+          <t>U7024932</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Javier Larraguivel</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -6055,12 +5367,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>U9740232</t>
+          <t>U7217349</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>Ernesto Aguilar</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -6068,29 +5380,25 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>U9858946</t>
+          <t>U7321123</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Federico Pozuelo</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>20221122112700</t>
-        </is>
-      </c>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>U7115856</t>
+          <t>U7906488</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>James Stanley Esquivel</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -6098,11 +5406,175 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
+          <t>U8459577</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Ana Laura Contreras</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>U8478855</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Osvaldo Mora</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>U8621416</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>U8869483</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Juan Carlos Herrera</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>U8974783</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Javier Larraguivel</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>U9032477</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Osvaldo Mora</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>U9149661</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Sylvia Fernandez</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>U9347752</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Javier Larraguivel</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>20220428095900</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>U9456704</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>U9740232</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>U9858946</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Federico Pozuelo</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>20221122112700</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>U7115856</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
           <t>U20020075</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>AGM</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
